--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/147.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/147.xlsx
@@ -479,13 +479,13 @@
         <v>-12.08212978086098</v>
       </c>
       <c r="E2" t="n">
-        <v>-13.57935231358021</v>
+        <v>-9.339436222892909</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.3840916023068097</v>
+        <v>-2.284661928931658</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.915700658066565</v>
+        <v>-8.833287795031778</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-11.91116612741146</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.02951805449012</v>
+        <v>-10.00927771318414</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.439092366544901</v>
+        <v>-2.305858367232412</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.029158554492962</v>
+        <v>-8.811502203103146</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.67771137570426</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.38861373683298</v>
+        <v>-10.71199397591094</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2676879377410233</v>
+        <v>-2.206880557748963</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.713922086669883</v>
+        <v>-8.196923323106841</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-11.41786709556964</v>
       </c>
       <c r="E5" t="n">
-        <v>-14.87869790910731</v>
+        <v>-11.4053754267116</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2507464978638297</v>
+        <v>-2.131220139626628</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.667706257638589</v>
+        <v>-7.739150954245889</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-11.12785708887224</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.52778809939441</v>
+        <v>-12.21001526706124</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2784236260712387</v>
+        <v>-2.199928544940007</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.698695738464956</v>
+        <v>-7.506592378868309</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.82973640492675</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.15638883573421</v>
+        <v>-12.88339167911974</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1426302609968559</v>
+        <v>-2.17939981408418</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.429465622827701</v>
+        <v>-6.838871841637437</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.52751989995983</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.79484807611382</v>
+        <v>-13.69383140962826</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.09239509499315295</v>
+        <v>-2.205859358127308</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.477200158988634</v>
+        <v>-6.369355677127458</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-10.23016767504555</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.3487703170444</v>
+        <v>-14.33095523511802</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.05441432444930562</v>
+        <v>-2.219357522357128</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.258624163046017</v>
+        <v>-6.115037694426928</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-9.94693956105113</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.15224494244114</v>
+        <v>-15.21688518381194</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1313916374804708</v>
+        <v>-2.189991487083137</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.114373170335879</v>
+        <v>-5.902078296403412</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-9.67678504615599</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.84659522365208</v>
+        <v>-15.83120221775141</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2099585468336689</v>
+        <v>-2.200164206391158</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.166938766245409</v>
+        <v>-5.744224401040721</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-9.438755187026473</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.65653744665262</v>
+        <v>-16.56645285303991</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2721469853318677</v>
+        <v>-2.13381241558929</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.017241375553113</v>
+        <v>-5.371957862039082</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-9.226646703097193</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.351843465971</v>
+        <v>-17.14387577757139</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2954643766929818</v>
+        <v>-2.095975660376702</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.700643308234493</v>
+        <v>-5.11079260495233</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-9.069118738750895</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.36573758263996</v>
+        <v>-18.08949353492074</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5087641745903829</v>
+        <v>-1.934010781921708</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.312810021154043</v>
+        <v>-4.751644553398101</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-8.958237766931527</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.11971021099212</v>
+        <v>-18.88542699388064</v>
       </c>
       <c r="F15" t="n">
-        <v>0.724315848576561</v>
+        <v>-1.791579619306571</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.967107764618266</v>
+        <v>-4.567815529197425</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-8.915225390570859</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.15469602753909</v>
+        <v>-19.69786984672395</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9967143015015135</v>
+        <v>-1.48552085577554</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.451820909373611</v>
+        <v>-4.213917491082728</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-8.926662943339947</v>
       </c>
       <c r="E17" t="n">
-        <v>-24.1556811336061</v>
+        <v>-20.51717306625632</v>
       </c>
       <c r="F17" t="n">
-        <v>1.130988959446256</v>
+        <v>-1.355632119282776</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.089412874411792</v>
+        <v>-4.010620212556406</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-8.994248559369582</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.90407644094768</v>
+        <v>-21.16634181036047</v>
       </c>
       <c r="F18" t="n">
-        <v>1.208338284635174</v>
+        <v>-1.161394714322928</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.732019191438353</v>
+        <v>-3.99184585028137</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-9.099633650760188</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.73322507221704</v>
+        <v>-21.84584542014889</v>
       </c>
       <c r="F19" t="n">
-        <v>1.418888698935812</v>
+        <v>-0.9140025598256724</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.125649185323811</v>
+        <v>-3.686035840504333</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-9.227279949531336</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.30597404463403</v>
+        <v>-22.35160107892477</v>
       </c>
       <c r="F20" t="n">
-        <v>1.632607450524149</v>
+        <v>-0.502367466178963</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.554890242938763</v>
+        <v>-3.394836840698662</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-9.362368161856518</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.10625414813738</v>
+        <v>-23.02087960019381</v>
       </c>
       <c r="F21" t="n">
-        <v>1.697257241956592</v>
+        <v>-0.2923014670834683</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.37646833981172</v>
+        <v>-3.469737905256177</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-9.483651946908115</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.83999916859907</v>
+        <v>-23.6711611900395</v>
       </c>
       <c r="F22" t="n">
-        <v>1.899978459157878</v>
+        <v>0.0588471874344666</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.03491634327677</v>
+        <v>-3.542792955113008</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-9.588861237222327</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.22440227233499</v>
+        <v>-24.00360094379661</v>
       </c>
       <c r="F23" t="n">
-        <v>2.103354291501251</v>
+        <v>0.280591520664781</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.746650019307646</v>
+        <v>-3.393750179562798</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-9.657700609935022</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.70907932353569</v>
+        <v>-24.44609459524127</v>
       </c>
       <c r="F24" t="n">
-        <v>2.112204688222258</v>
+        <v>0.3421777132322604</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.654480207301894</v>
+        <v>-3.601158441181423</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-9.700313309375394</v>
       </c>
       <c r="E25" t="n">
-        <v>-29.14379614709236</v>
+        <v>-24.78760731486769</v>
       </c>
       <c r="F25" t="n">
-        <v>2.322493256466062</v>
+        <v>0.7604244198140414</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.409915990218451</v>
+        <v>-3.710178046944476</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-9.701525991958595</v>
       </c>
       <c r="E26" t="n">
-        <v>-29.39353182379829</v>
+        <v>-24.82782686919747</v>
       </c>
       <c r="F26" t="n">
-        <v>2.325033163217357</v>
+        <v>0.8830992974410147</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.305046644456225</v>
+        <v>-3.94815683569853</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-9.675966088439786</v>
       </c>
       <c r="E27" t="n">
-        <v>-29.27469299090394</v>
+        <v>-24.89682330517337</v>
       </c>
       <c r="F27" t="n">
-        <v>2.401387473390304</v>
+        <v>0.9597416382764791</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.184571273706662</v>
+        <v>-3.978347686051551</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-9.615264067298332</v>
       </c>
       <c r="E28" t="n">
-        <v>-29.17763974993823</v>
+        <v>-24.82430503973305</v>
       </c>
       <c r="F28" t="n">
-        <v>2.404110672381382</v>
+        <v>1.053809834194281</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.925749538828579</v>
+        <v>-3.927182966546085</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-9.529569037709537</v>
       </c>
       <c r="E29" t="n">
-        <v>-29.21298896761089</v>
+        <v>-24.76477433871172</v>
       </c>
       <c r="F29" t="n">
-        <v>2.390861261905556</v>
+        <v>1.177780849802585</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.005337647803432</v>
+        <v>-4.142381148355537</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.415100274164054</v>
       </c>
       <c r="E30" t="n">
-        <v>-29.05144304284683</v>
+        <v>-24.70279537705899</v>
       </c>
       <c r="F30" t="n">
-        <v>2.290574222137934</v>
+        <v>1.16742483825478</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.27769682381986</v>
+        <v>-4.378710306951534</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.273234983509562</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.7023367875722</v>
+        <v>-24.34537550947987</v>
       </c>
       <c r="F31" t="n">
-        <v>2.332024452934839</v>
+        <v>1.223931217319669</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.390290628258704</v>
+        <v>-4.536511833102858</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.103823197141599</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.31463442352017</v>
+        <v>-24.01864399976175</v>
       </c>
       <c r="F32" t="n">
-        <v>2.396490952127498</v>
+        <v>1.20649226993449</v>
       </c>
       <c r="G32" t="n">
-        <v>-2.724432381385236</v>
+        <v>-4.780801111826625</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.901373414521478</v>
       </c>
       <c r="E33" t="n">
-        <v>-28.02535999223223</v>
+        <v>-23.80046077290439</v>
       </c>
       <c r="F33" t="n">
-        <v>2.378737789474117</v>
+        <v>1.167752145825823</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.761012275525019</v>
+        <v>-4.908791464407339</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-8.673565704213287</v>
       </c>
       <c r="E34" t="n">
-        <v>-27.36896429695945</v>
+        <v>-23.20989317631981</v>
       </c>
       <c r="F34" t="n">
-        <v>2.301859787187502</v>
+        <v>0.973226710203457</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.996372603710729</v>
+        <v>-4.978377054011113</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.412462549693016</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.87741378676685</v>
+        <v>-22.80400560362062</v>
       </c>
       <c r="F35" t="n">
-        <v>2.225714953860023</v>
+        <v>0.887341203561734</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.117070543608601</v>
+        <v>-4.982186914138055</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.135086071642323</v>
       </c>
       <c r="E36" t="n">
-        <v>-26.26787544336461</v>
+        <v>-22.29697999146909</v>
       </c>
       <c r="F36" t="n">
-        <v>2.236633934430023</v>
+        <v>0.7748390452427818</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.150377362037952</v>
+        <v>-4.79759853637256</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.836086841511992</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.57255633174338</v>
+        <v>-21.63740286660577</v>
       </c>
       <c r="F37" t="n">
-        <v>2.275884658349517</v>
+        <v>0.7309405538144743</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.230174947858273</v>
+        <v>-4.78971697006184</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.536058765387846</v>
       </c>
       <c r="E38" t="n">
-        <v>-25.04861546432034</v>
+        <v>-21.18998650929263</v>
       </c>
       <c r="F38" t="n">
-        <v>2.300681479931746</v>
+        <v>0.6124552130968534</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.342153414063556</v>
+        <v>-4.536184525531815</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.234603482622492</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.38831826280073</v>
+        <v>-20.7087527337393</v>
       </c>
       <c r="F39" t="n">
-        <v>2.355145459753327</v>
+        <v>0.4937342109280814</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.42463492196643</v>
+        <v>-4.311847916338839</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.948682687369715</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.8089053082373</v>
+        <v>-20.1708292868813</v>
       </c>
       <c r="F40" t="n">
-        <v>2.418747866958432</v>
+        <v>0.3913916796143087</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.65203513002437</v>
+        <v>-4.545977568057426</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.681039396360529</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.15075524438373</v>
+        <v>-19.46938297753015</v>
       </c>
       <c r="F41" t="n">
-        <v>2.543438959223031</v>
+        <v>0.374266947497331</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.685590702207714</v>
+        <v>-4.346686534200672</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.439534688554421</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.4657266827961</v>
+        <v>-18.79198722849924</v>
       </c>
       <c r="F42" t="n">
-        <v>2.607538873936122</v>
+        <v>0.2524823464635951</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.125387339266976</v>
+        <v>-4.445062097753402</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.228034761629745</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.9018542917058</v>
+        <v>-18.18797383689621</v>
       </c>
       <c r="F43" t="n">
-        <v>2.656949224860796</v>
+        <v>0.1625513182437788</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.313458269588371</v>
+        <v>-4.506923228680558</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.043869607726569</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.00517556237882</v>
+        <v>-17.53508687878501</v>
       </c>
       <c r="F44" t="n">
-        <v>2.698137609600866</v>
+        <v>0.1860389095418354</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.423852567149805</v>
+        <v>-4.242655095820316</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.889447705039568</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.45054633709478</v>
+        <v>-17.05323776499812</v>
       </c>
       <c r="F45" t="n">
-        <v>2.728695044433455</v>
+        <v>0.2109928387581652</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.592677812293863</v>
+        <v>-4.240691250394057</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.749673606405654</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.87367328928265</v>
+        <v>-16.49956427782153</v>
       </c>
       <c r="F46" t="n">
-        <v>2.847232754362443</v>
+        <v>0.1416690952112257</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.825877910510687</v>
+        <v>-4.172781475554024</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.626097883396898</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.49023901595701</v>
+        <v>-16.05513296555629</v>
       </c>
       <c r="F47" t="n">
-        <v>2.883760279290859</v>
+        <v>0.03962768686281273</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.887660487620793</v>
+        <v>-4.109165976046078</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.502237688832318</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.76065734779899</v>
+        <v>-15.51367459693103</v>
       </c>
       <c r="F48" t="n">
-        <v>2.969069724607546</v>
+        <v>0.04350300850396364</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.089858012708411</v>
+        <v>-4.192472299027981</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.38419750759461</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.24783184548858</v>
+        <v>-14.97978357934828</v>
       </c>
       <c r="F49" t="n">
-        <v>2.921335188446613</v>
+        <v>-0.06216496773160745</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.112232758264921</v>
+        <v>-4.1103966525132</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.263002421668383</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.72179620961086</v>
+        <v>-14.37410746528435</v>
       </c>
       <c r="F50" t="n">
-        <v>2.822200271329063</v>
+        <v>-0.2194951709806296</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.129370582684739</v>
+        <v>-3.951403726803278</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.146266744990065</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.05145721181165</v>
+        <v>-13.69194611801906</v>
       </c>
       <c r="F51" t="n">
-        <v>2.913846391221145</v>
+        <v>-0.2150437880144427</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.124487153724776</v>
+        <v>-3.871056264263605</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.031758234205088</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.46354735270394</v>
+        <v>-13.05966644458074</v>
       </c>
       <c r="F52" t="n">
-        <v>2.879518373170139</v>
+        <v>-0.2576985106727863</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.148236591079667</v>
+        <v>-3.828048049428535</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.923383586892605</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.86424719012393</v>
+        <v>-12.37453314457037</v>
       </c>
       <c r="F53" t="n">
-        <v>3.034819269478694</v>
+        <v>-0.05780523088531267</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.279303634828187</v>
+        <v>-3.860975191075477</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.822103387201309</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.21170063188662</v>
+        <v>-11.89204250794424</v>
       </c>
       <c r="F54" t="n">
-        <v>2.96933157066438</v>
+        <v>-0.1663927906545887</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.42883082558354</v>
+        <v>-3.948903096960509</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.727617003594093</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.58609803289758</v>
+        <v>-11.32106099641088</v>
       </c>
       <c r="F55" t="n">
-        <v>2.952730530661071</v>
+        <v>-0.3402847569983943</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.600968423346554</v>
+        <v>-4.0644295772359</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.646859013680137</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.21472177048918</v>
+        <v>-11.01962381578298</v>
       </c>
       <c r="F56" t="n">
-        <v>2.980590951108264</v>
+        <v>-0.2928513438028208</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.776405281425684</v>
+        <v>-4.210343292406937</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.577139843868724</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.57368334644974</v>
+        <v>-10.41435356310714</v>
       </c>
       <c r="F57" t="n">
-        <v>2.889206677273016</v>
+        <v>-0.4234339723461966</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.947024172059058</v>
+        <v>-4.37610493868603</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.528687144272353</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.07964529871721</v>
+        <v>-9.951396642320868</v>
       </c>
       <c r="F58" t="n">
-        <v>2.864776440170356</v>
+        <v>-0.4256203869207648</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.291312459887928</v>
+        <v>-4.676612565812169</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.495554097776365</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.46387501916231</v>
+        <v>-9.347199958478052</v>
       </c>
       <c r="F59" t="n">
-        <v>2.790831113720287</v>
+        <v>-0.4389352589108003</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.331950967908646</v>
+        <v>-4.787360355550329</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.487094784021866</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.02444496658262</v>
+        <v>-9.03726587330587</v>
       </c>
       <c r="F60" t="n">
-        <v>2.662317069025904</v>
+        <v>-0.5526680936968746</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.483193250336265</v>
+        <v>-4.927932411161942</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.495118098477829</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.6310998200058</v>
+        <v>-8.606358909876141</v>
       </c>
       <c r="F61" t="n">
-        <v>2.51604986167814</v>
+        <v>-0.677346093658632</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.616355062539461</v>
+        <v>-5.022223176228054</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.52241120140431</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.18102572521578</v>
+        <v>-8.212581717305545</v>
       </c>
       <c r="F62" t="n">
-        <v>2.246898299857936</v>
+        <v>-0.8322934977904599</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.803509531661936</v>
+        <v>-5.290916507448798</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.560152982192195</v>
       </c>
       <c r="E63" t="n">
-        <v>-10.91573639273389</v>
+        <v>-7.817442925239411</v>
       </c>
       <c r="F63" t="n">
-        <v>2.144568860847005</v>
+        <v>-0.9161366051888737</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.89570552827337</v>
+        <v>-5.303812425747898</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.604995275110908</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.57743128730368</v>
+        <v>-7.598408698697334</v>
       </c>
       <c r="F64" t="n">
-        <v>2.01869946132665</v>
+        <v>-0.9342825369275061</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.887247900637615</v>
+        <v>-5.383858765322211</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.651494111166357</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.52054523145638</v>
+        <v>-7.479766250345612</v>
       </c>
       <c r="F65" t="n">
-        <v>1.788170192889538</v>
+        <v>-1.085393896326708</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.880741026125277</v>
+        <v>-5.531657772102457</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.693946731880063</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.26622724875585</v>
+        <v>-7.301069408858893</v>
       </c>
       <c r="F66" t="n">
-        <v>1.664081346555658</v>
+        <v>-1.178218323474546</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.96889150115862</v>
+        <v>-5.655812079950545</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.731210249839676</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.06532586164957</v>
+        <v>-7.198177000825768</v>
       </c>
       <c r="F67" t="n">
-        <v>1.364267611480131</v>
+        <v>-1.312964304321591</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.815934127058734</v>
+        <v>-5.528083573426666</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.754913625542872</v>
       </c>
       <c r="E68" t="n">
-        <v>-9.965156652607522</v>
+        <v>-7.15609833949246</v>
       </c>
       <c r="F68" t="n">
-        <v>1.104961461396905</v>
+        <v>-1.476487166814749</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.760488224524024</v>
+        <v>-5.397042714283829</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.767994893804792</v>
       </c>
       <c r="E69" t="n">
-        <v>-9.736132998997208</v>
+        <v>-6.982821711382216</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9428918445191776</v>
+        <v>-1.516588890418956</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.645171221094101</v>
+        <v>-5.358145482541061</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.761644587053475</v>
       </c>
       <c r="E70" t="n">
-        <v>-9.696987013500447</v>
+        <v>-7.044813765337788</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6884429387902314</v>
+        <v>-1.75289186440927</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.470532993488316</v>
+        <v>-5.342094319257105</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.742231132827637</v>
       </c>
       <c r="E71" t="n">
-        <v>-9.513079435482721</v>
+        <v>-7.055182869188436</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6688306691333259</v>
+        <v>-1.7153431398592</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.243905231298038</v>
+        <v>-5.306090486442359</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.704145397988793</v>
       </c>
       <c r="E72" t="n">
-        <v>-9.560303371832827</v>
+        <v>-7.161413814446201</v>
       </c>
       <c r="F72" t="n">
-        <v>0.5441788537772519</v>
+        <v>-1.773983564287291</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.117721616509482</v>
+        <v>-5.229016099613117</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.65552411887581</v>
       </c>
       <c r="E73" t="n">
-        <v>-9.691501338609763</v>
+        <v>-7.371139413667811</v>
       </c>
       <c r="F73" t="n">
-        <v>0.4358138631562853</v>
+        <v>-1.798976770412146</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.946579033762439</v>
+        <v>-5.14886502161607</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.595461949960725</v>
       </c>
       <c r="E74" t="n">
-        <v>-9.939142246861012</v>
+        <v>-7.922626486269838</v>
       </c>
       <c r="F74" t="n">
-        <v>0.3097742636989884</v>
+        <v>-1.78490254485729</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.786486354613813</v>
+        <v>-5.209652583710204</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.529493764816938</v>
       </c>
       <c r="E75" t="n">
-        <v>-10.13061717592126</v>
+        <v>-8.387141391094278</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2509374547282714</v>
+        <v>-1.854042996164446</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.625542675780475</v>
+        <v>-5.173635658592616</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.459784945985581</v>
       </c>
       <c r="E76" t="n">
-        <v>-10.32884773324783</v>
+        <v>-8.766975281138436</v>
       </c>
       <c r="F76" t="n">
-        <v>0.194850029354317</v>
+        <v>-1.916715849867789</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.415869445770231</v>
+        <v>-5.079999508668591</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.388136457939543</v>
       </c>
       <c r="E77" t="n">
-        <v>-10.82960213233817</v>
+        <v>-9.502723423934915</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1646591790012967</v>
+        <v>-1.931601798198831</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.310162192626135</v>
+        <v>-5.003920136855321</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.319546506070471</v>
       </c>
       <c r="E78" t="n">
-        <v>-11.44427265845437</v>
+        <v>-10.35736276883711</v>
       </c>
       <c r="F78" t="n">
-        <v>0.02984773664004335</v>
+        <v>-2.110272455079867</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.16198350906348</v>
+        <v>-5.032160234084924</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.251639004516299</v>
       </c>
       <c r="E79" t="n">
-        <v>-12.13113414243984</v>
+        <v>-11.2562410050415</v>
       </c>
       <c r="F79" t="n">
-        <v>0.01125666660479234</v>
+        <v>-2.08162649646217</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.852402916068025</v>
+        <v>-4.901708528569965</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.191520484493084</v>
       </c>
       <c r="E80" t="n">
-        <v>-12.4914212243413</v>
+        <v>-11.79992506514986</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.07134267202365742</v>
+        <v>-2.073339068763357</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.628681645108609</v>
+        <v>-4.866961556828024</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.133664139918339</v>
       </c>
       <c r="E81" t="n">
-        <v>-13.08040465228203</v>
+        <v>-12.67687369409435</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.120543546102864</v>
+        <v>-2.082961911352026</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.33779686057114</v>
+        <v>-4.684323932185945</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.085854474589886</v>
       </c>
       <c r="E82" t="n">
-        <v>-13.97938762690915</v>
+        <v>-13.66231823668823</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.1047935057842675</v>
+        <v>-2.064488672042351</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.093010074339388</v>
+        <v>-4.483697483439335</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.041762983219789</v>
       </c>
       <c r="E83" t="n">
-        <v>-14.70572240396243</v>
+        <v>-14.69270865493776</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.1809514314145881</v>
+        <v>-2.126310526060981</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.817862237817673</v>
+        <v>-4.448505373400775</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.006857649892195</v>
       </c>
       <c r="E84" t="n">
-        <v>-15.58233063303304</v>
+        <v>-15.73811594454674</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.2386361177352331</v>
+        <v>-2.143867304171736</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.672053261069369</v>
+        <v>-4.312502531480925</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.976129900613921</v>
       </c>
       <c r="E85" t="n">
-        <v>-16.50988101246081</v>
+        <v>-16.81863679037723</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.2798375947781451</v>
+        <v>-2.115875960696125</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.425577567771034</v>
+        <v>-4.114271974154351</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.950351423704964</v>
       </c>
       <c r="E86" t="n">
-        <v>-17.67691579546943</v>
+        <v>-18.1382099937948</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.3936489833812697</v>
+        <v>-2.165901649854361</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.275291023450861</v>
+        <v>-4.025047930287988</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.926040171807314</v>
       </c>
       <c r="E87" t="n">
-        <v>-18.91735912051161</v>
+        <v>-19.4275137930423</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.3299942069647976</v>
+        <v>-1.965929816249837</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.040349648956087</v>
+        <v>-3.78318072758994</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.900879365022556</v>
       </c>
       <c r="E88" t="n">
-        <v>-20.2554841170559</v>
+        <v>-20.95025335195778</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.2814872249362025</v>
+        <v>-1.885268138441963</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.978279041183463</v>
+        <v>-3.638811904154227</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.876494962098781</v>
       </c>
       <c r="E89" t="n">
-        <v>-21.65772212061613</v>
+        <v>-22.51020123554944</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.4056677173899743</v>
+        <v>-1.912303743810127</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.91870906325361</v>
+        <v>-3.593394705596279</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.850306853404645</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.19165559846128</v>
+        <v>-24.28570079312728</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.3153308277820644</v>
+        <v>-1.672531309566756</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.86963911220282</v>
+        <v>-3.554589119973403</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.829876462632411</v>
       </c>
       <c r="E91" t="n">
-        <v>-24.71173741989989</v>
+        <v>-26.12097980548044</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3449456168100488</v>
+        <v>-1.611940132015247</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.92750709076325</v>
+        <v>-3.461005339260745</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.812370010009537</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.53364919105164</v>
+        <v>-28.14476179414877</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4760388451642519</v>
+        <v>-1.521485411681762</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.093255644739501</v>
+        <v>-3.650608069014622</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.808322906873875</v>
       </c>
       <c r="E93" t="n">
-        <v>-28.23686614464032</v>
+        <v>-30.03090440304204</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.6549975327078056</v>
+        <v>-1.616011838199024</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.095101659440185</v>
+        <v>-3.58953247625797</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.814340149671614</v>
       </c>
       <c r="E94" t="n">
-        <v>-30.00250719817834</v>
+        <v>-32.11514664623346</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.6097243494811168</v>
+        <v>-1.407006315633709</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.222437396878813</v>
+        <v>-3.730222362595158</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.838818989210777</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.81880237141099</v>
+        <v>-34.08426827053759</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.7740720270533041</v>
+        <v>-1.460121788262592</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.17068352374547</v>
+        <v>-3.614879174559551</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.878968998943552</v>
       </c>
       <c r="E96" t="n">
-        <v>-33.92907211265177</v>
+        <v>-36.28628887009318</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.8815074641725082</v>
+        <v>-1.468435400567088</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.36190969905172</v>
+        <v>-3.783364019829724</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.935244518632502</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.07564680967265</v>
+        <v>-38.62808289478703</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.9338504909337291</v>
+        <v>-1.397239457713781</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.568126561111748</v>
+        <v>-3.999871431923348</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.004387634783473</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.20173205274623</v>
+        <v>-40.95355081783726</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.9825538575049501</v>
+        <v>-1.312414427602238</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.812586039772457</v>
+        <v>-4.139134257250789</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.076998200641402</v>
       </c>
       <c r="E99" t="n">
-        <v>-40.30802173392312</v>
+        <v>-43.05384422431264</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.115388362137103</v>
+        <v>-1.431881691032989</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.12041226418712</v>
+        <v>-4.358220853004233</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.151379026343046</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.6022252377873</v>
+        <v>-45.4586122256752</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.017012798584373</v>
+        <v>-1.271252227467851</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.191398730194959</v>
+        <v>-4.50049490798527</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.207740374140698</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.73667646237674</v>
+        <v>-47.6889383839746</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.200265761460013</v>
+        <v>-1.31902604053731</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.558114132791706</v>
+        <v>-5.005609043921903</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.253006957818545</v>
       </c>
       <c r="E102" t="n">
-        <v>-47.06738130656366</v>
+        <v>-50.03327231541976</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.332393281738712</v>
+        <v>-1.479799519433706</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.786404617442884</v>
+        <v>-5.311170299944948</v>
       </c>
     </row>
   </sheetData>
